--- a/业绩报表/839452.xlsx
+++ b/业绩报表/839452.xlsx
@@ -644,26 +644,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>70512625.65000001</v>
+        <v>89942100.12</v>
       </c>
       <c r="L2" t="n">
-        <v>6188892.97</v>
+        <v>5357437.88</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>27.5546035776</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-13.4346335287</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.630100861</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0091204535</v>
+      </c>
       <c r="R2" t="n">
-        <v>42.051878634</v>
+        <v>30.7711064374</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -688,22 +696,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2019Q3</t>
+          <t>2020Q3</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2019年 三季报</t>
+          <t>2020年 三季报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">

--- a/业绩报表/839452.xlsx
+++ b/业绩报表/839452.xlsx
@@ -644,34 +644,26 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>89942100.12</v>
+        <v>70512625.65000001</v>
       </c>
       <c r="L2" t="n">
-        <v>5357437.88</v>
+        <v>6188892.97</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>27.5546035776</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-13.4346335287</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.630100861</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0091204535</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>30.7711064374</v>
+        <v>42.051878634</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -696,22 +688,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2020Q3</t>
+          <t>2019Q3</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2020年 三季报</t>
+          <t>2019年 三季报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
